--- a/Examples/output/data_schema_properties_2017.xlsx
+++ b/Examples/output/data_schema_properties_2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>column</t>
   </si>
@@ -53,7 +53,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[12003235, 12507109, 12881568, 13893443, 10744602]</t>
+    <t>[11091033, 11036440, 13897552, 11214294, 12041138]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -71,37 +71,37 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[516.0, 224.0, 651.0, 555.0, 782.0]</t>
+    <t>[516.0, 516.0, 224.0, 555.0, 216.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 2.0, 4.0, 2.0]</t>
+    <t>[1.0, 1.0, 3.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 3.0, 4.0, 3.0, 3.0]</t>
+    <t>[2.0, 3.0, 3.0, 3.0, 3.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 3.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 7.0, 7.0, 4.0]</t>
+    <t>[7.0, 4.0, 7.0, 7.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 1.0, 2.0, 2.0]</t>
+    <t>[1.0, 1.0, 2.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -113,43 +113,43 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[799.0, 1067.0, 1556.0, 1349.0, 1136.0]</t>
+    <t>[1662.0, 1391.0, 1960.0, 1800.0, 2052.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1200.0, 1868.0, 1682.0, 1430.0, 1857.0]</t>
+    <t>[1075.0, 3088.0, 1817.0, 3023.0, 1308.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[2189.0, 912.0, 1294.0, 6052.0, 800.0]</t>
+    <t>[2184.0, 1590.0, 3685.0, 1322.0, 1938.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1152.0, 1140.0, 1368.0, 520.0, 720.0]</t>
+    <t>[1152.0, 1440.0, 1536.0, 1344.0, 900.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[3476.0, 2183.0, 1916.0, 3578.0, 4194.0]</t>
+    <t>[2244.0, 2414.0, 3150.0, 2170.0, 2866.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1151.0, 1062.0, 1717.0, 850.0, 1373.0]</t>
+    <t>[755.0, 1058.0, 845.0, 516.0, 1232.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[1287.0, 996.0, 1087.0, 1223.0, 1084.0]</t>
+    <t>[1190.0, 1287.0, 1939.0, 2340.0, 2470.0]</t>
   </si>
   <si>
     <t>fips</t>
@@ -161,25 +161,25 @@
     <t>fireplacecnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 2.0]</t>
+    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 3.0, 2.0, 3.0]</t>
+    <t>[1.0, 3.0, 1.0, 2.0, 3.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[1.0, 4.0, 2.0, 2.0, 2.0]</t>
+    <t>[1.0, 2.0, 2.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[483.0, 424.0, 240.0, 437.0, 585.0]</t>
+    <t>[396.0, 472.0, 360.0, 440.0, 472.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -194,25 +194,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 7.0, 2.0, 2.0]</t>
+    <t>[2.0, 2.0, 7.0, 7.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33817311, 33873130, 34251600, 34235402, 34178249]</t>
+    <t>[33750822, 34602039, 34310097, 33935513, 33962427]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118127439, -117983254, -118694844, -118751166, -117792000]</t>
+    <t>[-118164042, -118204000, -118306995, -118356253, -117886965]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[7701.0, 7955.0, 4800.0, 3199.0, 6598.0]</t>
+    <t>[4401.0, 6941.0, 5634.0, 6702.0, 5702.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -221,7 +221,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[420.0, 590.0, 420.0, 720.0, 645.0]</t>
+    <t>[385.0, 518.0, 450.0, 800.0, 680.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -236,49 +236,49 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '122', '0300', '0100', '0100']</t>
+    <t>['0108', '010C', '1118', '0100', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[266, 246, 261, 261, 261]</t>
+    <t>[261, 261, 261, 261, 261]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LCA11*', 'LAR1', 'LAR1', 'GLR4*', 'LAR3']</t>
+    <t>['LCA25*', 'LCA12*', 'SCUR2', 'DOR106', 'LAR1']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[61110055.021006, 60375772.004003, 60372627.063002005, 60375416.042008, 61110083.043006994]</t>
+    <t>[60374814.026007, 60371171.021003, 60591103.04200699, 60372640.002008, 61110030.132002]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[11626.0, 11626.0, 12447.0, 51617.0, 12447.0]</t>
+    <t>[24384.0, 12447.0, 12447.0, 19177.0, 19177.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101, 3101, 1286, 3101, 3101]</t>
+    <t>[3101, 3101, 3101, 3101, 3101]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[273197.0, 27987.0, 276606.0, 118208.0, 27987.0]</t>
+    <t>[51906.0, 40548.0, 48200.0, 268134.0, 273257.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97317.0, 96337.0, 97041.0, 96163.0, 96025.0]</t>
+    <t>[96361.0, 96505.0, 96480.0, 96957.0, 96464.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
@@ -308,24 +308,27 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[209.0, 436.0, 332.0, 281.0, 200.0]</t>
+    <t>[363.0, 280.0, 287.0, 420.0, 195.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[300.0, 360.0, 816.0, 300.0, 170.0]</t>
+    <t>[26.0, 1280.0, 300.0, 560.0, 96.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1955.0, 1979.0, 1961.0, 1973.0, 1972.0]</t>
+    <t>[1954.0, 1942.0, 1988.0, 1989.0, 1924.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
+    <t>[2.0, 2.0, 1.0, 1.0, 2.0]</t>
+  </si>
+  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
@@ -335,13 +338,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[106466.0, 152921.0, 76498.0, 181226.0, 138798.0]</t>
+    <t>[37078.0, 42358.0, 46082.0, 743380.0, 20757.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[208607.0, 43893.0, 149091.0, 282303.0, 297289.0]</t>
+    <t>[322203.0, 215860.0, 336100.0, 408554.0, 459000.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -353,13 +356,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[172639.0, 178889.0, 16428.0, 42105.0, 131972.0]</t>
+    <t>[86085.0, 483312.0, 231927.0, 162778.0, 86185.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[6472.28, 1105.47, 8014.08, 3151.7, 4862.3]</t>
+    <t>[3263.11, 2473.41, 7800.76, 2711.42, 4704.12]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -371,13 +374,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 15.0, 11.0, 11.0, 13.0]</t>
+    <t>[11.0, 15.0, 15.0, 15.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60379105042000.0, 60374026005016.0, 61110075052022.0, 60372315003009.0, 60374304001017.0]</t>
+    <t>[60374071022000.0, 60375545182010.0, 60371437001010.0, 60372167003007.0, 60376010022005.0]</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>4</v>
@@ -2431,7 +2434,7 @@
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -2440,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>11</v>
@@ -2472,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>8956</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>11</v>
@@ -2504,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>9606</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>11</v>
@@ -2536,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>2</v>
@@ -2559,7 +2562,7 @@
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>11</v>
@@ -2568,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>8605</v>
@@ -2591,7 +2594,7 @@
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>11</v>
@@ -2600,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>10747</v>
@@ -2623,7 +2626,7 @@
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -2632,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>11</v>
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>9</v>
@@ -2687,7 +2690,7 @@
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>11</v>
@@ -2696,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>9761</v>
